--- a/doc/examples/forecasting/middle-out-forecast.xlsx
+++ b/doc/examples/forecasting/middle-out-forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\user-guide\examples\forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\jdetaeye\workspace\frepple-community\doc\examples\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136097B-02E1-488A-B122-851BEA0848C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D2DA36-AE91-49EC-BB62-10830C49337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="20150" windowHeight="11770" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="supplier" sheetId="11" r:id="rId6"/>
     <sheet name="item supplier" sheetId="12" r:id="rId7"/>
     <sheet name="parameter" sheetId="14" r:id="rId8"/>
+    <sheet name="measure" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">customer!$A:$B</definedName>
@@ -28,6 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'item supplier'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">location!$A:$B</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">measure!$A:$M</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">parameter!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$G</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">supplier!$A:$A</definedName>
@@ -36,8 +38,74 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6147BA1B-A4E1-49EB-A555-DEDBCF9A9D3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: aggregate, local, computed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BC9BC7E4-87B2-45B6-B90C-62D50ED963EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: edit, view, hide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3DD0863A-FC76-4C2A-B2DA-7C20CA263D16}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: edit, view, hide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{6E5BC8F7-A917-473B-B516-7133DA2CE980}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Accepted values are: number, currency</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="642">
   <si>
     <t>Name</t>
   </si>
@@ -1302,15 +1370,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: true</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -1780,6 +1842,195 @@
   </si>
   <si>
     <t>Determines whether confirmed manufacturing orders consume material or not. Default is true.</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mode In Past Periods</t>
+  </si>
+  <si>
+    <t>Mode In Future Periods</t>
+  </si>
+  <si>
+    <t>Initially Hidden</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Compute Expression</t>
+  </si>
+  <si>
+    <t>Update Expression</t>
+  </si>
+  <si>
+    <t>Override Measure</t>
+  </si>
+  <si>
+    <t>forecastbaselinevalue</t>
+  </si>
+  <si>
+    <t>forecast baseline value</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastbaselinevalue, forecastbaseline * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastbaseline := newvalue /cost, forecastbaselinevalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastconsumedvalue</t>
+  </si>
+  <si>
+    <t>forecast consumed value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastconsumedvalue, forecastconsumed * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastconsumed := newvalue / cost, forecastconsumedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastnetvalue</t>
+  </si>
+  <si>
+    <t>forecast net value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastnetvalue, forecastnet * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastnet := newvalue /cost, forecastnetvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastoverridevalue</t>
+  </si>
+  <si>
+    <t>forecast override value</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastoverridevalue, if(forecastoverride == -1, -1, forecastoverride * cost))</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastoverride := if(newvalue == -1, -1, newvalue / cost), forecastoverridevalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecastplannedvalue</t>
+  </si>
+  <si>
+    <t>planned forecast value</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecastplannedvalue, forecastplanned * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecastplanned := newvalue /cost, forecastplannedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>forecasttotal</t>
+  </si>
+  <si>
+    <t>total forecast</t>
+  </si>
+  <si>
+    <t>This row is what we'll plan supply for</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>if(forecastoverride == -1, forecastbaseline, forecastoverride)</t>
+  </si>
+  <si>
+    <t>forecasttotalvalue</t>
+  </si>
+  <si>
+    <t>forecast total value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, forecasttotalvalue, forecasttotal * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, forecasttotal:= newvalue /cost, forecasttotalvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>nodata</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>Indicates gaps in the sales history</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ordersadjustmentvalue</t>
+  </si>
+  <si>
+    <t>orders adjustment value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersadjustmentvalue, ordersadjustment * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersadjustment := newvalue /cost, ordersadjustmentvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>ordersopenvalue</t>
+  </si>
+  <si>
+    <t>orders open value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersopenvalue, ordersopen * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersopen := newvalue /cost, ordersopenvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>ordersplannedvalue</t>
+  </si>
+  <si>
+    <t>planned orders value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, ordersplannedvalue, ordersplanned * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, ordersplanned := newvalue /cost, ordersplannedvalue := newvalue)</t>
+  </si>
+  <si>
+    <t>orderstotalvalue</t>
+  </si>
+  <si>
+    <t>orders total value</t>
+  </si>
+  <si>
+    <t>if(cost == 0, orderstotalvalue, orderstotal * cost)</t>
+  </si>
+  <si>
+    <t>if(cost != 0, orderstotal := newvalue /cost, orderstotalvalue := newvalue)</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +2040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1801,6 +2052,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1825,17 +2080,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="headerstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="headerstyle 2" xfId="2" xr:uid="{16BAA892-3A11-4D51-AC52-3AF48CD57676}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2142,14 +2400,14 @@
       <selection activeCell="H1" sqref="H1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2218,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2241,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2264,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2310,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2333,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2356,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2379,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2402,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2425,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2448,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2471,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2494,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2517,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2540,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2563,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2609,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2632,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2655,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2678,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2701,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2724,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2747,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2770,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2793,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2816,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2839,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2862,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2885,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2908,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2931,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2954,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2977,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3000,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -3023,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -3046,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3069,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -3092,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -3115,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -3161,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -3184,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -3207,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3230,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -3253,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -3276,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3299,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3322,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -3345,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -3368,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -3391,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -3414,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -3437,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -3460,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -3483,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -3506,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -3529,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3552,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -3575,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3598,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -3621,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3644,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -3667,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -3690,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -3713,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -3736,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -3759,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -3782,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -3805,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -3828,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -3851,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -3874,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -3897,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -3920,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -3943,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -3966,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -3989,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -4012,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>118</v>
       </c>
@@ -4035,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -4058,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -4081,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>121</v>
       </c>
@@ -4104,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>122</v>
       </c>
@@ -4127,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -4150,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>124</v>
       </c>
@@ -4173,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -4196,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -4219,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -4242,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -4265,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -4288,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -4311,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -4334,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -4357,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>133</v>
       </c>
@@ -4380,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -4403,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -4426,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -4449,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>137</v>
       </c>
@@ -4472,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -4495,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -4518,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>140</v>
       </c>
@@ -4541,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -4564,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>142</v>
       </c>
@@ -4587,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -4610,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -4633,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -4656,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>146</v>
       </c>
@@ -4679,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -4702,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>148</v>
       </c>
@@ -4725,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>149</v>
       </c>
@@ -4748,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>150</v>
       </c>
@@ -4771,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -4794,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>152</v>
       </c>
@@ -4817,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>153</v>
       </c>
@@ -4840,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>154</v>
       </c>
@@ -4863,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -4886,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -4909,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>157</v>
       </c>
@@ -4932,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>158</v>
       </c>
@@ -4955,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>159</v>
       </c>
@@ -4978,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -5001,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -5024,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>162</v>
       </c>
@@ -5047,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>163</v>
       </c>
@@ -5070,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>164</v>
       </c>
@@ -5093,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -5116,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -5139,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -5162,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -5185,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>169</v>
       </c>
@@ -5208,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>170</v>
       </c>
@@ -5231,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -5254,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -5277,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -5300,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -5323,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>175</v>
       </c>
@@ -5346,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>176</v>
       </c>
@@ -5369,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>177</v>
       </c>
@@ -5392,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>178</v>
       </c>
@@ -5415,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -5438,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -5461,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>181</v>
       </c>
@@ -5484,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>182</v>
       </c>
@@ -5507,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>183</v>
       </c>
@@ -5530,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -5553,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -5576,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -5599,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -5622,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>188</v>
       </c>
@@ -5645,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>189</v>
       </c>
@@ -5668,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -5691,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -5714,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>192</v>
       </c>
@@ -5737,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>193</v>
       </c>
@@ -5760,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>194</v>
       </c>
@@ -5783,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>195</v>
       </c>
@@ -5806,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>196</v>
       </c>
@@ -5829,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>197</v>
       </c>
@@ -5852,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>198</v>
       </c>
@@ -5875,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>199</v>
       </c>
@@ -5898,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>200</v>
       </c>
@@ -5921,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>201</v>
       </c>
@@ -5944,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>202</v>
       </c>
@@ -5967,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -5990,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>205</v>
       </c>
@@ -6013,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>206</v>
       </c>
@@ -6036,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>207</v>
       </c>
@@ -6059,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>208</v>
       </c>
@@ -6082,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -6105,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>210</v>
       </c>
@@ -6128,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>211</v>
       </c>
@@ -6151,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>212</v>
       </c>
@@ -6174,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>213</v>
       </c>
@@ -6197,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>214</v>
       </c>
@@ -6220,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>215</v>
       </c>
@@ -6243,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>216</v>
       </c>
@@ -6266,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>217</v>
       </c>
@@ -6289,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -6312,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>219</v>
       </c>
@@ -6335,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -6358,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>222</v>
       </c>
@@ -6381,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>223</v>
       </c>
@@ -6404,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>224</v>
       </c>
@@ -6427,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>225</v>
       </c>
@@ -6450,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>226</v>
       </c>
@@ -6473,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>227</v>
       </c>
@@ -6496,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>228</v>
       </c>
@@ -6519,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>229</v>
       </c>
@@ -6542,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>230</v>
       </c>
@@ -6565,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>231</v>
       </c>
@@ -6588,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>232</v>
       </c>
@@ -6611,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>233</v>
       </c>
@@ -6634,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>234</v>
       </c>
@@ -6657,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>235</v>
       </c>
@@ -6680,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>236</v>
       </c>
@@ -6703,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>237</v>
       </c>
@@ -6726,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -6749,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>239</v>
       </c>
@@ -6772,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>240</v>
       </c>
@@ -6795,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>241</v>
       </c>
@@ -6818,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>242</v>
       </c>
@@ -6841,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>243</v>
       </c>
@@ -6864,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>244</v>
       </c>
@@ -6887,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>245</v>
       </c>
@@ -6910,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>246</v>
       </c>
@@ -6933,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>247</v>
       </c>
@@ -6956,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>248</v>
       </c>
@@ -6979,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>249</v>
       </c>
@@ -7002,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>250</v>
       </c>
@@ -7025,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -7048,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>252</v>
       </c>
@@ -7071,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>253</v>
       </c>
@@ -7094,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>254</v>
       </c>
@@ -7117,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>255</v>
       </c>
@@ -7140,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>256</v>
       </c>
@@ -7163,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>257</v>
       </c>
@@ -7186,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>258</v>
       </c>
@@ -7209,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>259</v>
       </c>
@@ -7232,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>260</v>
       </c>
@@ -7255,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>261</v>
       </c>
@@ -7278,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>262</v>
       </c>
@@ -7301,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>263</v>
       </c>
@@ -7324,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>264</v>
       </c>
@@ -7347,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>265</v>
       </c>
@@ -7370,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>266</v>
       </c>
@@ -7393,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>267</v>
       </c>
@@ -7416,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>268</v>
       </c>
@@ -7439,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>269</v>
       </c>
@@ -7462,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>270</v>
       </c>
@@ -7485,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>271</v>
       </c>
@@ -7508,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>272</v>
       </c>
@@ -7531,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>273</v>
       </c>
@@ -7554,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>274</v>
       </c>
@@ -7577,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>275</v>
       </c>
@@ -7600,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>276</v>
       </c>
@@ -7623,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>277</v>
       </c>
@@ -7646,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>278</v>
       </c>
@@ -7669,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>279</v>
       </c>
@@ -7692,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>280</v>
       </c>
@@ -7715,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>281</v>
       </c>
@@ -7738,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>282</v>
       </c>
@@ -7761,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>283</v>
       </c>
@@ -7784,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>284</v>
       </c>
@@ -7807,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>285</v>
       </c>
@@ -7830,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -7853,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>287</v>
       </c>
@@ -7876,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>288</v>
       </c>
@@ -7899,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>289</v>
       </c>
@@ -7922,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>290</v>
       </c>
@@ -7945,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>291</v>
       </c>
@@ -7968,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>292</v>
       </c>
@@ -7991,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -8014,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>294</v>
       </c>
@@ -8037,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>295</v>
       </c>
@@ -8060,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>296</v>
       </c>
@@ -8083,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>297</v>
       </c>
@@ -8106,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>298</v>
       </c>
@@ -8129,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>299</v>
       </c>
@@ -8152,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>300</v>
       </c>
@@ -8175,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>301</v>
       </c>
@@ -8198,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>302</v>
       </c>
@@ -8221,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>303</v>
       </c>
@@ -8244,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>304</v>
       </c>
@@ -8267,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>305</v>
       </c>
@@ -8290,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>306</v>
       </c>
@@ -8313,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>307</v>
       </c>
@@ -8336,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>308</v>
       </c>
@@ -8359,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>309</v>
       </c>
@@ -8382,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>310</v>
       </c>
@@ -8405,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>311</v>
       </c>
@@ -8428,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>312</v>
       </c>
@@ -8451,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>313</v>
       </c>
@@ -8474,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>314</v>
       </c>
@@ -8497,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>315</v>
       </c>
@@ -8520,7 +8778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>316</v>
       </c>
@@ -8543,7 +8801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>317</v>
       </c>
@@ -8566,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>318</v>
       </c>
@@ -8589,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>319</v>
       </c>
@@ -8612,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>320</v>
       </c>
@@ -8635,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>321</v>
       </c>
@@ -8658,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>322</v>
       </c>
@@ -8681,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>323</v>
       </c>
@@ -8704,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>324</v>
       </c>
@@ -8727,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>325</v>
       </c>
@@ -8750,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>326</v>
       </c>
@@ -8773,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>327</v>
       </c>
@@ -8796,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>328</v>
       </c>
@@ -8819,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>329</v>
       </c>
@@ -8842,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>330</v>
       </c>
@@ -8865,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>331</v>
       </c>
@@ -8888,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>332</v>
       </c>
@@ -8911,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>333</v>
       </c>
@@ -8934,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>334</v>
       </c>
@@ -8957,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>335</v>
       </c>
@@ -8980,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>336</v>
       </c>
@@ -9003,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>337</v>
       </c>
@@ -9026,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>338</v>
       </c>
@@ -9049,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>339</v>
       </c>
@@ -9072,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>340</v>
       </c>
@@ -9095,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>341</v>
       </c>
@@ -9118,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>342</v>
       </c>
@@ -9141,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>343</v>
       </c>
@@ -9164,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>344</v>
       </c>
@@ -9187,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>345</v>
       </c>
@@ -9210,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>346</v>
       </c>
@@ -9233,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>347</v>
       </c>
@@ -9256,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>348</v>
       </c>
@@ -9279,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>349</v>
       </c>
@@ -9302,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>350</v>
       </c>
@@ -9325,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>351</v>
       </c>
@@ -9348,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>352</v>
       </c>
@@ -9371,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>353</v>
       </c>
@@ -9394,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>354</v>
       </c>
@@ -9417,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>355</v>
       </c>
@@ -9440,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>356</v>
       </c>
@@ -9463,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>357</v>
       </c>
@@ -9486,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>358</v>
       </c>
@@ -9509,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>359</v>
       </c>
@@ -9546,12 +9804,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9562,12 +9820,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>360</v>
       </c>
@@ -9575,7 +9833,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>362</v>
       </c>
@@ -9583,7 +9841,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>402</v>
       </c>
@@ -9591,7 +9849,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>403</v>
       </c>
@@ -9599,7 +9857,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>404</v>
       </c>
@@ -9607,7 +9865,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>405</v>
       </c>
@@ -9615,7 +9873,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>406</v>
       </c>
@@ -9623,7 +9881,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>407</v>
       </c>
@@ -9631,7 +9889,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -9642,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -9653,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -9664,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -9675,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -9686,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -9697,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -9708,7 +9966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -9719,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9730,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -9741,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -9752,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -9763,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -9774,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -9785,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -9796,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -9807,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -9818,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -9843,13 +10101,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9857,12 +10115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -9870,7 +10128,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -9892,12 +10150,12 @@
       <selection activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9905,12 +10163,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -9918,7 +10176,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -9926,7 +10184,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9934,7 +10192,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -9942,7 +10200,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -9950,7 +10208,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -9958,7 +10216,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -9966,7 +10224,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -9974,7 +10232,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9982,7 +10240,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10004,18 +10262,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10038,7 +10296,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>412</v>
       </c>
@@ -10061,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>414</v>
       </c>
@@ -10084,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>363</v>
       </c>
@@ -10107,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>364</v>
       </c>
@@ -10130,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>365</v>
       </c>
@@ -10153,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>366</v>
       </c>
@@ -10176,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -10199,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>368</v>
       </c>
@@ -10222,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>369</v>
       </c>
@@ -10245,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>370</v>
       </c>
@@ -10268,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>371</v>
       </c>
@@ -10291,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -10314,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>373</v>
       </c>
@@ -10337,7 +10595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -10360,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>375</v>
       </c>
@@ -10383,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -10406,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>377</v>
       </c>
@@ -10429,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>379</v>
       </c>
@@ -10452,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>380</v>
       </c>
@@ -10475,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -10498,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>382</v>
       </c>
@@ -10521,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>383</v>
       </c>
@@ -10544,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>384</v>
       </c>
@@ -10567,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>385</v>
       </c>
@@ -10590,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>386</v>
       </c>
@@ -10613,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>387</v>
       </c>
@@ -10636,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>388</v>
       </c>
@@ -10659,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>389</v>
       </c>
@@ -10682,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>390</v>
       </c>
@@ -10705,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -10728,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>392</v>
       </c>
@@ -10751,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>393</v>
       </c>
@@ -10774,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>394</v>
       </c>
@@ -10797,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>395</v>
       </c>
@@ -10820,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -10843,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>397</v>
       </c>
@@ -10866,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>398</v>
       </c>
@@ -10889,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>399</v>
       </c>
@@ -10926,14 +11184,14 @@
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -10952,18 +11210,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10986,7 +11244,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -10994,7 +11252,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -11002,7 +11260,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -11010,7 +11268,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -11018,7 +11276,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -11026,7 +11284,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -11034,7 +11292,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -11042,7 +11300,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -11050,7 +11308,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -11058,7 +11316,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -11066,7 +11324,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -11074,7 +11332,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -11082,7 +11340,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -11090,7 +11348,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -11098,7 +11356,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -11106,7 +11364,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -11114,7 +11372,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -11122,7 +11380,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -11138,20 +11396,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="182.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="182.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11162,249 +11420,249 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" t="s">
-        <v>452</v>
       </c>
       <c r="C12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>458</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="C18" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>469</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>474</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>475</v>
       </c>
       <c r="C21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
-        <v>477</v>
+        <v>305</v>
       </c>
       <c r="C22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>479</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>481</v>
       </c>
@@ -11415,511 +11673,960 @@
         <v>482</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>483</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>485</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C26" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>487</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>489</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>490</v>
       </c>
       <c r="C28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B29" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C29" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>494</v>
       </c>
       <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" t="s">
         <v>495</v>
       </c>
-      <c r="C30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>496</v>
       </c>
       <c r="B31" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>498</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>500</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C33" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>502</v>
       </c>
       <c r="B34" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="C34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B35" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="C35" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>507</v>
       </c>
       <c r="B36" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>509</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>511</v>
       </c>
       <c r="B38" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="C38" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B39" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="C39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
         <v>516</v>
       </c>
-      <c r="B40" t="s">
-        <v>452</v>
-      </c>
-      <c r="C40" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>517</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="C41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>435</v>
+      </c>
+      <c r="C42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>519</v>
       </c>
-      <c r="B42" t="s">
-        <v>452</v>
-      </c>
-      <c r="C42" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>520</v>
       </c>
-      <c r="B43" t="s">
-        <v>437</v>
-      </c>
-      <c r="C43" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" t="s">
         <v>521</v>
       </c>
-      <c r="B44" t="s">
-        <v>440</v>
-      </c>
-      <c r="C44" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>522</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="C45" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>524</v>
       </c>
       <c r="B46" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C46" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>526</v>
       </c>
       <c r="B47" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="C47" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C48" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B49" t="s">
-        <v>532</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>534</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="C50" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>536</v>
       </c>
       <c r="B51" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>538</v>
       </c>
       <c r="B52" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="C52" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>540</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C53" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>542</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>317</v>
       </c>
       <c r="C54" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>544</v>
       </c>
       <c r="B55" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="C55" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B56" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C56" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B57" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="C57" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>552</v>
       </c>
       <c r="B58" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="C58" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B59" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="C59" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>557</v>
       </c>
       <c r="B60" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="C60" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>559</v>
-      </c>
-      <c r="B61" t="s">
         <v>560</v>
       </c>
       <c r="C61" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>562</v>
       </c>
+      <c r="B62" t="s">
+        <v>475</v>
+      </c>
       <c r="C62" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>564</v>
       </c>
       <c r="B63" t="s">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>566</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>490</v>
       </c>
       <c r="C64" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>568</v>
       </c>
       <c r="B65" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="C65" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>570</v>
       </c>
       <c r="B66" t="s">
-        <v>422</v>
+        <v>571</v>
       </c>
       <c r="C66" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B67" t="s">
-        <v>573</v>
+        <v>421</v>
       </c>
       <c r="C67" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>575</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C68" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>577</v>
       </c>
       <c r="B69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C69" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>579</v>
-      </c>
-      <c r="B70" t="s">
-        <v>422</v>
-      </c>
-      <c r="C70" t="s">
-        <v>580</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCCEC4A-CA37-4982-BB80-98DBC3756A2F}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>597</v>
+      </c>
+      <c r="L3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>601</v>
+      </c>
+      <c r="L4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>606</v>
+      </c>
+      <c r="L5" t="s">
+        <v>607</v>
+      </c>
+      <c r="M5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>611</v>
+      </c>
+      <c r="L6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D7" t="s">
+        <v>591</v>
+      </c>
+      <c r="E7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>616</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>620</v>
+      </c>
+      <c r="L8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F9" t="s">
+        <v>605</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>616</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" t="s">
+        <v>591</v>
+      </c>
+      <c r="E10" t="s">
+        <v>605</v>
+      </c>
+      <c r="F10" t="s">
+        <v>610</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>422</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>628</v>
+      </c>
+      <c r="L10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>632</v>
+      </c>
+      <c r="L11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" t="s">
+        <v>635</v>
+      </c>
+      <c r="D12" t="s">
+        <v>591</v>
+      </c>
+      <c r="E12" t="s">
+        <v>610</v>
+      </c>
+      <c r="F12" t="s">
+        <v>592</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>422</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>636</v>
+      </c>
+      <c r="L12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>638</v>
+      </c>
+      <c r="B13" t="s">
+        <v>639</v>
+      </c>
+      <c r="D13" t="s">
+        <v>591</v>
+      </c>
+      <c r="E13" t="s">
+        <v>592</v>
+      </c>
+      <c r="F13" t="s">
+        <v>592</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>640</v>
+      </c>
+      <c r="L13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>